--- a/src/test/resources/Testdata/testData.xlsx
+++ b/src/test/resources/Testdata/testData.xlsx
@@ -30,13 +30,13 @@
     <t>Result</t>
   </si>
   <si>
-    <t>TestCase</t>
-  </si>
-  <si>
     <t>loginTest</t>
   </si>
   <si>
     <t>postBuzz</t>
+  </si>
+  <si>
+    <t>Testcase</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="2"/>
     </row>
@@ -442,10 +442,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
     </row>
